--- a/Django/Django.xlsx
+++ b/Django/Django.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="dj_course" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="DJ_REST" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>https://freecoursesite.us/build-olx-clone-python-django-course/</t>
   </si>
@@ -43,13 +43,16 @@
   </si>
   <si>
     <t>https://www.fullstackpython.com/table-of-contents.html</t>
+  </si>
+  <si>
+    <t>https://aiexplain.com/2020/04/08/django-rest-framwork-theo-document-phan-1-serialization/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -95,6 +98,20 @@
       <sz val="18"/>
       <color rgb="FF333333"/>
       <name val="Lato"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="16"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -121,7 +138,7 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -129,6 +146,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -493,6 +512,33 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="21"/>
+  <cols>
+    <col min="1" max="16384" width="8.88671875" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="6" spans="2:2">
+      <c r="B6" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -501,16 +547,4 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>